--- a/knowledge-engineering/src/main/java/com/data/data.xlsx
+++ b/knowledge-engineering/src/main/java/com/data/data.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Fax\cetvrta godina\drugi semestar\inzinjering znanja\IZ_Project\knowledge-engineering\src\main\java\com\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\inz\IZ_Project\knowledge-engineering\src\main\java\com\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B5BA48-D574-4B6D-9598-0B67DCBCB58B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="28">
   <si>
     <t>company_name</t>
   </si>
@@ -61,21 +60,78 @@
   </si>
   <si>
     <t>north_america</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>iframe-overlay</t>
+  </si>
+  <si>
+    <t>credential-prompt-impersonation</t>
+  </si>
+  <si>
+    <t>[ad-click;suspicious-linkl;suspicious-conversation-email]</t>
+  </si>
+  <si>
+    <t>malicious-manual-software-update</t>
+  </si>
+  <si>
+    <t>[ad-click;frequents-spams;suspicious-conversation-email]</t>
+  </si>
+  <si>
+    <t>north-america</t>
+  </si>
+  <si>
+    <t>credit_agricole</t>
+  </si>
+  <si>
+    <t>europe</t>
+  </si>
+  <si>
+    <t>finance</t>
+  </si>
+  <si>
+    <t>[suspicious-link; update]</t>
+  </si>
+  <si>
+    <t>[suspicious-link; update;suspicious-conversation-email]</t>
+  </si>
+  <si>
+    <t>[frequents-spams; update;suspicious-conversation-email]</t>
+  </si>
+  <si>
+    <t>[credential-re-entering;credentials-theft;frequents-spams]</t>
+  </si>
+  <si>
+    <t>samsung</t>
+  </si>
+  <si>
+    <t>asia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -99,9 +155,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,25 +439,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.77734375" customWidth="1"/>
+    <col min="4" max="4" width="47.5546875" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,7 +480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -443,6 +501,351 @@
       </c>
       <c r="G2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3">
+        <v>36596</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>150</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
+        <v>36675</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>155</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
+        <v>38371</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>800</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>38448</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>820</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>38504</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>850</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3">
+        <v>42207</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>335</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3">
+        <v>42225</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>332</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3">
+        <v>42237</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>340</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3">
+        <v>42988</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>400</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3">
+        <v>43093</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>400</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3">
+        <v>40850</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>900</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3">
+        <v>40874</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>950</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3">
+        <v>40879</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>960</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3">
+        <v>43624</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>2000</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3">
+        <v>41319</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>1500</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/knowledge-engineering/src/main/java/com/data/data.xlsx
+++ b/knowledge-engineering/src/main/java/com/data/data.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\inz\IZ_Project\knowledge-engineering\src\main\java\com\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="57">
   <si>
     <t>company_name</t>
   </si>
@@ -50,12 +45,6 @@
     <t>attack_date(YYYY-MM-DD)</t>
   </si>
   <si>
-    <t>spear-fishing</t>
-  </si>
-  <si>
-    <t>[blabla1, blabla2]</t>
-  </si>
-  <si>
     <t>technology</t>
   </si>
   <si>
@@ -108,17 +97,110 @@
   </si>
   <si>
     <t>asia</t>
+  </si>
+  <si>
+    <t>[suspicious-conversation-email;suspicious-link;credentials-theft]</t>
+  </si>
+  <si>
+    <t>spear-phishing</t>
+  </si>
+  <si>
+    <t>counterfeit-websites</t>
+  </si>
+  <si>
+    <t>typo-squatting</t>
+  </si>
+  <si>
+    <t>Erste bank</t>
+  </si>
+  <si>
+    <t>business-and-professional-service</t>
+  </si>
+  <si>
+    <t>south-america</t>
+  </si>
+  <si>
+    <t>Intesa</t>
+  </si>
+  <si>
+    <t>[suspicious-conversation-email;suspicious-link;suspicious-website;credentials-theft]</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Digitaz</t>
+  </si>
+  <si>
+    <t>VegaIT</t>
+  </si>
+  <si>
+    <t>Credit_agricole</t>
+  </si>
+  <si>
+    <t>B&amp;G_Consulting</t>
+  </si>
+  <si>
+    <t>Cloud_Tech</t>
+  </si>
+  <si>
+    <t>australia</t>
+  </si>
+  <si>
+    <t>[suspicious-conversation-email;suspicious-link;suspicious-website;credentials-theft;frequents-spams]</t>
+  </si>
+  <si>
+    <t>hospital</t>
+  </si>
+  <si>
+    <t>CMS_Consulting</t>
+  </si>
+  <si>
+    <t>MCI</t>
+  </si>
+  <si>
+    <t>DEL_Hospital</t>
+  </si>
+  <si>
+    <t>Brain_Balance</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>mobile-phishing</t>
+  </si>
+  <si>
+    <t>[suspicious-conversation-phone-call;suspicious-conversation-phone-message;suspicious-link;credentials-theft;frequents-spams]</t>
+  </si>
+  <si>
+    <t>south_america</t>
+  </si>
+  <si>
+    <t>NovoGrap</t>
+  </si>
+  <si>
+    <t>Huawei</t>
+  </si>
+  <si>
+    <t>Trion_Tech</t>
+  </si>
+  <si>
+    <t>Techy_Fighters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="166" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,11 +237,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -220,7 +303,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -255,7 +338,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -432,32 +515,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="32.88671875" customWidth="1"/>
     <col min="2" max="2" width="31.44140625" customWidth="1"/>
     <col min="3" max="3" width="29.77734375" customWidth="1"/>
-    <col min="4" max="4" width="47.5546875" customWidth="1"/>
+    <col min="4" max="4" width="92.21875" customWidth="1"/>
     <col min="5" max="5" width="20.5546875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,372 +563,809 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>34211</v>
+        <v>43707</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>16700</v>
       </c>
       <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
       </c>
       <c r="B3" s="3">
         <v>36596</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
       </c>
       <c r="E3">
         <v>150</v>
       </c>
       <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
       </c>
       <c r="B4" s="3">
         <v>36675</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>155</v>
       </c>
       <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
       </c>
       <c r="B5" s="3">
         <v>38371</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>800</v>
       </c>
       <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="B6" s="3">
         <v>38448</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>820</v>
       </c>
       <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
       </c>
       <c r="B7" s="3">
         <v>38504</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>850</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3">
         <v>42207</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>335</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
         <v>42225</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>332</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
         <v>42237</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>340</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3">
         <v>42988</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>400</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3">
         <v>43093</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>400</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3">
         <v>40850</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>900</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3">
         <v>40874</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>950</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3">
         <v>40879</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>960</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3">
         <v>43624</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>2000</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3">
         <v>41319</v>
       </c>
       <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
         <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
       </c>
       <c r="E17">
         <v>1500</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="4">
+        <v>43598</v>
+      </c>
+      <c r="C18" t="s">
         <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>850</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="4">
+        <v>42996</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>750</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="4">
+        <v>38512</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>600</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="4">
+        <v>39763</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>800</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="4">
+        <v>39965</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22">
+        <v>16700</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="4">
+        <v>43531</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23">
+        <v>2000</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="4">
+        <v>41214</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24">
+        <v>1300</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="4">
+        <v>43996</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25">
+        <v>1200</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="4">
+        <v>39302</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26">
+        <v>700</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="4">
+        <v>43811</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27">
+        <v>1100</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="4">
+        <v>43603</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28">
+        <v>500</v>
+      </c>
+      <c r="F28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="4">
+        <v>43177</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29">
+        <v>450</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="4">
+        <v>43212</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30">
+        <v>400</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="4">
+        <v>42560</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31">
+        <v>1500</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="4">
+        <v>42562</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32">
+        <v>900</v>
+      </c>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="4">
+        <v>43655</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33">
+        <v>400</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4">
+        <v>43270</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34">
+        <v>450</v>
+      </c>
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="4">
+        <v>42574</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35">
+        <v>800</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="4">
+        <v>43550</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36">
+        <v>200</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/knowledge-engineering/src/main/java/com/data/data.xlsx
+++ b/knowledge-engineering/src/main/java/com/data/data.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Fax\cetvrta godina\drugi semestar\inzinjering znanja\IZ_Project\knowledge-engineering\src\main\java\com\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363991C6-50B1-45AD-9C0D-6D8EB8B02C37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="85">
   <si>
     <t>company_name</t>
   </si>
@@ -190,17 +196,101 @@
   </si>
   <si>
     <t>Techy_Fighters</t>
+  </si>
+  <si>
+    <t>microsoft</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>walmart</t>
+  </si>
+  <si>
+    <t>levi9</t>
+  </si>
+  <si>
+    <t>lidl</t>
+  </si>
+  <si>
+    <t>metro</t>
+  </si>
+  <si>
+    <t>pretexting-via-customer-service</t>
+  </si>
+  <si>
+    <t>[suspicious-conversation-phone-message; suspicious-conversation-phone-call;credentials-theft;pop-up-windows]</t>
+  </si>
+  <si>
+    <t>africa</t>
+  </si>
+  <si>
+    <t>retail-and-manifacturing</t>
+  </si>
+  <si>
+    <t>[credential-re-entering;ad-blocker-deactivation;suspicious-conversation-email]</t>
+  </si>
+  <si>
+    <t>dns-domain-seizure</t>
+  </si>
+  <si>
+    <t>[services-fail;suspicious-link;suspicious-code-modifications;update]</t>
+  </si>
+  <si>
+    <t>[services-fail;suspicious-link;suspicious-code-modifications;credentials-theft;update]</t>
+  </si>
+  <si>
+    <t>influence-via-incentives</t>
+  </si>
+  <si>
+    <t>harvesting-information-via-api-event-monitoring</t>
+  </si>
+  <si>
+    <t>lenovo</t>
+  </si>
+  <si>
+    <t>[services-fail;suspicious-link;suspicious-code-modifications]</t>
+  </si>
+  <si>
+    <t>[suspicious-conversation-phone-message;suspicious-conversation-phone-call;bribery]</t>
+  </si>
+  <si>
+    <t>[suspicious-conversation-phone-call;bribery]</t>
+  </si>
+  <si>
+    <t>[suspicious-conversation-phone-email;suspicious-conversation-phone-call;bribery;credentials-theft]</t>
+  </si>
+  <si>
+    <t>[suspicious-conversation-phone-visit;suspicious-conversation-phone-email;bribery;credential-re-entering]</t>
+  </si>
+  <si>
+    <t>[credentials-theft;frequents-spams;suspicious-conversation-phone-call;app-download]</t>
+  </si>
+  <si>
+    <t>[credential-re-entering;suspicious-conversation-phone-email;app-download]</t>
+  </si>
+  <si>
+    <t>logistics-and-transportation</t>
+  </si>
+  <si>
+    <t>[credential-re-entering;suspicious-conversation-phone-email;ad-blocker-deactivation]</t>
+  </si>
+  <si>
+    <t>[credential-re-entering;services-fail;app-download]</t>
+  </si>
+  <si>
+    <t>[credential-re-entering;suspicious-conversation-visit;app-download]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +305,12 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -237,12 +333,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,32 +613,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" customWidth="1"/>
-    <col min="3" max="3" width="29.77734375" customWidth="1"/>
-    <col min="4" max="4" width="92.21875" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="119.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -586,7 +684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -609,7 +707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -632,7 +730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -655,7 +753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -678,7 +776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -701,7 +799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -724,7 +822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -747,7 +845,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -770,7 +868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -793,7 +891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -816,7 +914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -839,7 +937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -862,7 +960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -885,7 +983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -908,7 +1006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -931,7 +1029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -954,7 +1052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -977,7 +1075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1000,7 +1098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1023,7 +1121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1046,7 +1144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1069,7 +1167,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1092,7 +1190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1115,7 +1213,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1138,7 +1236,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1161,7 +1259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1184,7 +1282,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1207,7 +1305,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -1230,7 +1328,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -1253,7 +1351,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -1276,7 +1374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -1299,7 +1397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1322,7 +1420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -1345,7 +1443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -1367,6 +1465,397 @@
       <c r="G36" t="s">
         <v>52</v>
       </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="4">
+        <v>37854</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="6">
+        <v>116475</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="4">
+        <v>42538</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="6">
+        <v>166400</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="4">
+        <v>37703</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="6">
+        <v>52000</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="4">
+        <v>42955</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="6">
+        <v>166475</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="4">
+        <v>42537</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="6">
+        <v>49000</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="4">
+        <v>41383</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="6">
+        <v>98000</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="4">
+        <v>44041</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="6">
+        <v>140000</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="4">
+        <v>41979</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="6">
+        <v>125000</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="4">
+        <v>43294</v>
+      </c>
+      <c r="C45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="6">
+        <v>2300000</v>
+      </c>
+      <c r="F45" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="5">
+        <v>37276</v>
+      </c>
+      <c r="C46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1100000</v>
+      </c>
+      <c r="F46" t="s">
+        <v>66</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="4">
+        <v>38034</v>
+      </c>
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="6">
+        <v>120</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="4">
+        <v>38067</v>
+      </c>
+      <c r="C48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="6">
+        <v>120</v>
+      </c>
+      <c r="F48" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="4">
+        <v>40296</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" s="6">
+        <v>240000</v>
+      </c>
+      <c r="F49" t="s">
+        <v>66</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="4">
+        <v>41154</v>
+      </c>
+      <c r="C50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="6">
+        <v>280000</v>
+      </c>
+      <c r="F50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="4">
+        <v>41251</v>
+      </c>
+      <c r="C51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="6">
+        <v>300000</v>
+      </c>
+      <c r="F51" t="s">
+        <v>81</v>
+      </c>
+      <c r="G51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="4">
+        <v>43991</v>
+      </c>
+      <c r="C52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" s="6">
+        <v>310000</v>
+      </c>
+      <c r="F52" t="s">
+        <v>81</v>
+      </c>
+      <c r="G52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="4">
+        <v>44205</v>
+      </c>
+      <c r="C53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" s="6">
+        <v>350000</v>
+      </c>
+      <c r="F53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/knowledge-engineering/src/main/java/com/data/data.xlsx
+++ b/knowledge-engineering/src/main/java/com/data/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Fax\cetvrta godina\drugi semestar\inzinjering znanja\IZ_Project\knowledge-engineering\src\main\java\com\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\inz\IZ_Project\knowledge-engineering\src\main\java\com\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363991C6-50B1-45AD-9C0D-6D8EB8B02C37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="106">
   <si>
     <t>company_name</t>
   </si>
@@ -280,17 +279,80 @@
   </si>
   <si>
     <t>[credential-re-entering;suspicious-conversation-visit;app-download]</t>
+  </si>
+  <si>
+    <t>skills_required</t>
+  </si>
+  <si>
+    <t>prerequisites</t>
+  </si>
+  <si>
+    <t>consequences</t>
+  </si>
+  <si>
+    <t>likelihood</t>
+  </si>
+  <si>
+    <t>severity</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>allow_iFrames</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>[integrity:modify_data;confidentiality:read_data]</t>
+  </si>
+  <si>
+    <t>[confidentiality:read_data;authorization: execute_unauthorized_commands]</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>knowledge_about_update_processes</t>
+  </si>
+  <si>
+    <t>knowledge_about_deployed_system</t>
+  </si>
+  <si>
+    <t>[access_control:execute_unauthorized_commands]</t>
+  </si>
+  <si>
+    <t>access_to_the_target_system</t>
+  </si>
+  <si>
+    <t>[access_control:gain_privileges]</t>
+  </si>
+  <si>
+    <t>[availability:execute_unauthorized_commands]</t>
+  </si>
+  <si>
+    <t>[confidentiality:execute_unauthorized_commands]</t>
+  </si>
+  <si>
+    <t>[access_control:bypass_protection_mechanism;confidentiality:read_data]</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>[confidentiality:read_data;integrity:modify_data]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +373,28 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF33332C"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -333,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -341,6 +425,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,25 +710,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="119.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="119.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" customWidth="1"/>
+    <col min="9" max="9" width="33" customWidth="1"/>
+    <col min="10" max="10" width="65.21875" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -660,8 +754,23 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -683,8 +792,23 @@
       <c r="G2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -706,8 +830,23 @@
       <c r="G3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -729,8 +868,23 @@
       <c r="G4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -752,8 +906,23 @@
       <c r="G5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -775,8 +944,23 @@
       <c r="G6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -798,8 +982,23 @@
       <c r="G7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -821,8 +1020,23 @@
       <c r="G8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -844,8 +1058,23 @@
       <c r="G9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -867,8 +1096,23 @@
       <c r="G10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -890,8 +1134,23 @@
       <c r="G11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -913,8 +1172,23 @@
       <c r="G12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -936,8 +1210,23 @@
       <c r="G13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -959,8 +1248,23 @@
       <c r="G14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -982,8 +1286,23 @@
       <c r="G15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1005,8 +1324,23 @@
       <c r="G16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1028,8 +1362,23 @@
       <c r="G17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1052,7 +1401,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1075,7 +1424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1098,7 +1447,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1121,7 +1470,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1144,7 +1493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1167,7 +1516,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1190,7 +1539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1213,7 +1562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1236,7 +1585,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1259,7 +1608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1282,7 +1631,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1305,7 +1654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -1328,7 +1677,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -1351,7 +1700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -1374,7 +1723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -1397,7 +1746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1420,7 +1769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -1443,7 +1792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -1466,7 +1815,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -1489,7 +1838,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -1512,7 +1861,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -1532,7 +1881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -1555,7 +1904,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -1575,7 +1924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -1598,7 +1947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -1621,7 +1970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -1644,7 +1993,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -1667,7 +2016,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -1690,7 +2039,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -1713,7 +2062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -1736,7 +2085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -1759,7 +2108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -1782,7 +2131,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -1805,7 +2154,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -1828,7 +2177,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -1851,10 +2200,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B54" s="5"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B55" s="5"/>
     </row>
   </sheetData>

--- a/knowledge-engineering/src/main/java/com/data/data.xlsx
+++ b/knowledge-engineering/src/main/java/com/data/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\inz\IZ_Project\knowledge-engineering\src\main\java\com\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Fax\cetvrta godina\drugi semestar\inzinjering znanja\IZ_Project\knowledge-engineering\src\main\java\com\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FD0A5B-B6CC-402A-AC74-29FC59ED6EB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="113">
   <si>
     <t>company_name</t>
   </si>
@@ -342,17 +343,38 @@
   </si>
   <si>
     <t>[confidentiality:read_data;integrity:modify_data]</t>
+  </si>
+  <si>
+    <t>knowledge_of_how_to_communicate_with_the_target</t>
+  </si>
+  <si>
+    <t>[confidentiality:other]</t>
+  </si>
+  <si>
+    <t>knowledge_of_and_access_to_network_route</t>
+  </si>
+  <si>
+    <t>[availability:resource_consumption]</t>
+  </si>
+  <si>
+    <t>[confidentiality:other;availability:other;integrity:other]</t>
+  </si>
+  <si>
+    <t>[confidentiality:read_data]</t>
+  </si>
+  <si>
+    <t>target_software_is_utilizing_application_framework_APIs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +418,13 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -417,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -431,6 +460,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,29 +740,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="119.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" customWidth="1"/>
-    <col min="9" max="9" width="33" customWidth="1"/>
-    <col min="10" max="10" width="65.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="119.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="65.28515625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -770,7 +800,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -808,7 +838,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -846,7 +876,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -884,7 +914,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -922,7 +952,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -960,7 +990,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -998,7 +1028,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1036,7 +1066,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1074,7 +1104,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1112,7 +1142,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1150,7 +1180,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1188,7 +1218,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1226,7 +1256,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1264,7 +1294,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1302,7 +1332,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1340,7 +1370,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1378,7 +1408,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1401,7 +1431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1424,7 +1454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1447,7 +1477,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1470,7 +1500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1493,7 +1523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1516,7 +1546,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1539,7 +1569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1562,7 +1592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1585,7 +1615,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1608,7 +1638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1631,7 +1661,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1654,7 +1684,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -1677,7 +1707,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -1700,7 +1730,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -1723,7 +1753,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -1746,7 +1776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1769,7 +1799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -1792,7 +1822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -1815,7 +1845,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -1837,8 +1867,23 @@
       <c r="G37" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>95</v>
+      </c>
+      <c r="I37" t="s">
+        <v>106</v>
+      </c>
+      <c r="J37" t="s">
+        <v>107</v>
+      </c>
+      <c r="K37" t="s">
+        <v>92</v>
+      </c>
+      <c r="L37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -1860,8 +1905,23 @@
       <c r="G38" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>95</v>
+      </c>
+      <c r="I38" t="s">
+        <v>106</v>
+      </c>
+      <c r="J38" t="s">
+        <v>107</v>
+      </c>
+      <c r="K38" t="s">
+        <v>92</v>
+      </c>
+      <c r="L38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -1880,8 +1940,23 @@
       <c r="G39" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>95</v>
+      </c>
+      <c r="I39" t="s">
+        <v>106</v>
+      </c>
+      <c r="J39" t="s">
+        <v>107</v>
+      </c>
+      <c r="K39" t="s">
+        <v>92</v>
+      </c>
+      <c r="L39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -1903,8 +1978,23 @@
       <c r="G40" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>95</v>
+      </c>
+      <c r="I40" t="s">
+        <v>106</v>
+      </c>
+      <c r="J40" t="s">
+        <v>107</v>
+      </c>
+      <c r="K40" t="s">
+        <v>92</v>
+      </c>
+      <c r="L40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -1923,8 +2013,23 @@
       <c r="G41" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>90</v>
+      </c>
+      <c r="I41" t="s">
+        <v>108</v>
+      </c>
+      <c r="J41" t="s">
+        <v>109</v>
+      </c>
+      <c r="K41" t="s">
+        <v>95</v>
+      </c>
+      <c r="L41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -1946,8 +2051,23 @@
       <c r="G42" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>90</v>
+      </c>
+      <c r="I42" t="s">
+        <v>108</v>
+      </c>
+      <c r="J42" t="s">
+        <v>109</v>
+      </c>
+      <c r="K42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -1969,8 +2089,23 @@
       <c r="G43" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" t="s">
+        <v>90</v>
+      </c>
+      <c r="I43" t="s">
+        <v>108</v>
+      </c>
+      <c r="J43" t="s">
+        <v>109</v>
+      </c>
+      <c r="K43" t="s">
+        <v>95</v>
+      </c>
+      <c r="L43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -1992,8 +2127,23 @@
       <c r="G44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>90</v>
+      </c>
+      <c r="I44" t="s">
+        <v>108</v>
+      </c>
+      <c r="J44" t="s">
+        <v>109</v>
+      </c>
+      <c r="K44" t="s">
+        <v>95</v>
+      </c>
+      <c r="L44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -2015,8 +2165,23 @@
       <c r="G45" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" t="s">
+        <v>95</v>
+      </c>
+      <c r="I45" t="s">
+        <v>106</v>
+      </c>
+      <c r="J45" t="s">
+        <v>110</v>
+      </c>
+      <c r="K45" t="s">
+        <v>95</v>
+      </c>
+      <c r="L45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -2038,8 +2203,23 @@
       <c r="G46" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" t="s">
+        <v>95</v>
+      </c>
+      <c r="I46" t="s">
+        <v>106</v>
+      </c>
+      <c r="J46" t="s">
+        <v>110</v>
+      </c>
+      <c r="K46" t="s">
+        <v>95</v>
+      </c>
+      <c r="L46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -2061,8 +2241,23 @@
       <c r="G47" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
+        <v>95</v>
+      </c>
+      <c r="I47" t="s">
+        <v>106</v>
+      </c>
+      <c r="J47" t="s">
+        <v>110</v>
+      </c>
+      <c r="K47" t="s">
+        <v>95</v>
+      </c>
+      <c r="L47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -2084,8 +2279,23 @@
       <c r="G48" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" t="s">
+        <v>95</v>
+      </c>
+      <c r="I48" t="s">
+        <v>106</v>
+      </c>
+      <c r="J48" t="s">
+        <v>110</v>
+      </c>
+      <c r="K48" t="s">
+        <v>95</v>
+      </c>
+      <c r="L48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -2107,8 +2317,23 @@
       <c r="G49" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" t="s">
+        <v>95</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J49" t="s">
+        <v>111</v>
+      </c>
+      <c r="K49" t="s">
+        <v>95</v>
+      </c>
+      <c r="L49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2130,8 +2355,23 @@
       <c r="G50" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" t="s">
+        <v>95</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J50" t="s">
+        <v>111</v>
+      </c>
+      <c r="K50" t="s">
+        <v>95</v>
+      </c>
+      <c r="L50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2153,8 +2393,23 @@
       <c r="G51" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" t="s">
+        <v>95</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J51" t="s">
+        <v>111</v>
+      </c>
+      <c r="K51" t="s">
+        <v>95</v>
+      </c>
+      <c r="L51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -2176,8 +2431,23 @@
       <c r="G52" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" t="s">
+        <v>95</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J52" t="s">
+        <v>111</v>
+      </c>
+      <c r="K52" t="s">
+        <v>95</v>
+      </c>
+      <c r="L52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -2199,11 +2469,26 @@
       <c r="G53" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" t="s">
+        <v>95</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J53" t="s">
+        <v>111</v>
+      </c>
+      <c r="K53" t="s">
+        <v>95</v>
+      </c>
+      <c r="L53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
     </row>
   </sheetData>

--- a/knowledge-engineering/src/main/java/com/data/data.xlsx
+++ b/knowledge-engineering/src/main/java/com/data/data.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Fax\cetvrta godina\drugi semestar\inzinjering znanja\IZ_Project\knowledge-engineering\src\main\java\com\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FD0A5B-B6CC-402A-AC74-29FC59ED6EB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="117">
   <si>
     <t>company_name</t>
   </si>
@@ -364,17 +358,29 @@
   </si>
   <si>
     <t>target_software_is_utilizing_application_framework_APIs</t>
+  </si>
+  <si>
+    <t>knowledge_of_popular_domains</t>
+  </si>
+  <si>
+    <t>mobile_phone_number_of_victim</t>
+  </si>
+  <si>
+    <t>[integrity:gain_privileges]</t>
+  </si>
+  <si>
+    <t>[confidentiality:read_data;authirization:gain_privileges;integrity:modify_data]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,36 +739,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="119.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="56.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="65.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="119.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="56.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="65.33203125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -800,7 +806,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -829,7 +835,7 @@
         <v>104</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="K2" t="s">
         <v>90</v>
@@ -838,7 +844,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -876,7 +882,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -914,7 +920,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -952,7 +958,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -990,7 +996,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1028,7 +1034,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1066,7 +1072,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1104,7 +1110,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1142,7 +1148,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1180,7 +1186,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1218,7 +1224,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1256,7 +1262,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1294,7 +1300,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1332,7 +1338,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1370,7 +1376,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1408,7 +1414,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1430,8 +1436,23 @@
       <c r="G18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1453,8 +1474,23 @@
       <c r="G19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1476,8 +1512,23 @@
       <c r="G20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" t="s">
+        <v>90</v>
+      </c>
+      <c r="L20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1499,8 +1550,23 @@
       <c r="G21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21" t="s">
+        <v>116</v>
+      </c>
+      <c r="K21" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1522,8 +1588,23 @@
       <c r="G22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1545,8 +1626,23 @@
       <c r="G23" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J23" t="s">
+        <v>115</v>
+      </c>
+      <c r="K23" t="s">
+        <v>92</v>
+      </c>
+      <c r="L23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1568,8 +1664,23 @@
       <c r="G24" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" t="s">
+        <v>115</v>
+      </c>
+      <c r="K24" t="s">
+        <v>92</v>
+      </c>
+      <c r="L24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1591,8 +1702,23 @@
       <c r="G25" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" t="s">
+        <v>104</v>
+      </c>
+      <c r="J25" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1614,8 +1740,23 @@
       <c r="G26" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" t="s">
+        <v>115</v>
+      </c>
+      <c r="K26" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1637,8 +1778,23 @@
       <c r="G27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>95</v>
+      </c>
+      <c r="I27" t="s">
+        <v>113</v>
+      </c>
+      <c r="J27" t="s">
+        <v>107</v>
+      </c>
+      <c r="K27" t="s">
+        <v>95</v>
+      </c>
+      <c r="L27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1660,8 +1816,23 @@
       <c r="G28" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>95</v>
+      </c>
+      <c r="I28" t="s">
+        <v>113</v>
+      </c>
+      <c r="J28" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28" t="s">
+        <v>95</v>
+      </c>
+      <c r="L28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1683,8 +1854,23 @@
       <c r="G29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29" t="s">
+        <v>113</v>
+      </c>
+      <c r="J29" t="s">
+        <v>107</v>
+      </c>
+      <c r="K29" t="s">
+        <v>95</v>
+      </c>
+      <c r="L29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -1706,8 +1892,23 @@
       <c r="G30" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30" t="s">
+        <v>113</v>
+      </c>
+      <c r="J30" t="s">
+        <v>107</v>
+      </c>
+      <c r="K30" t="s">
+        <v>95</v>
+      </c>
+      <c r="L30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -1729,8 +1930,23 @@
       <c r="G31" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>95</v>
+      </c>
+      <c r="I31" t="s">
+        <v>113</v>
+      </c>
+      <c r="J31" t="s">
+        <v>107</v>
+      </c>
+      <c r="K31" t="s">
+        <v>95</v>
+      </c>
+      <c r="L31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -1752,8 +1968,23 @@
       <c r="G32" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32" t="s">
+        <v>114</v>
+      </c>
+      <c r="J32" t="s">
+        <v>105</v>
+      </c>
+      <c r="K32" t="s">
+        <v>90</v>
+      </c>
+      <c r="L32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -1775,8 +2006,23 @@
       <c r="G33" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" t="s">
+        <v>105</v>
+      </c>
+      <c r="K33" t="s">
+        <v>90</v>
+      </c>
+      <c r="L33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1798,8 +2044,23 @@
       <c r="G34" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>92</v>
+      </c>
+      <c r="I34" t="s">
+        <v>114</v>
+      </c>
+      <c r="J34" t="s">
+        <v>105</v>
+      </c>
+      <c r="K34" t="s">
+        <v>90</v>
+      </c>
+      <c r="L34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -1821,8 +2082,23 @@
       <c r="G35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>92</v>
+      </c>
+      <c r="I35" t="s">
+        <v>114</v>
+      </c>
+      <c r="J35" t="s">
+        <v>105</v>
+      </c>
+      <c r="K35" t="s">
+        <v>90</v>
+      </c>
+      <c r="L35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -1844,8 +2120,23 @@
       <c r="G36" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I36" t="s">
+        <v>114</v>
+      </c>
+      <c r="J36" t="s">
+        <v>105</v>
+      </c>
+      <c r="K36" t="s">
+        <v>90</v>
+      </c>
+      <c r="L36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -1883,7 +2174,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -1921,7 +2212,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -1956,7 +2247,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -1994,7 +2285,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -2029,7 +2320,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -2067,7 +2358,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -2105,7 +2396,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -2143,7 +2434,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -2181,7 +2472,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -2219,7 +2510,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -2257,7 +2548,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -2295,7 +2586,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -2333,7 +2624,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2371,7 +2662,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2409,7 +2700,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -2447,7 +2738,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -2485,10 +2776,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="B54" s="5"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="B55" s="5"/>
     </row>
   </sheetData>

--- a/knowledge-engineering/src/main/java/com/data/data.xlsx
+++ b/knowledge-engineering/src/main/java/com/data/data.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Fax\cetvrta godina\drugi semestar\inzinjering znanja\IZ_Project\knowledge-engineering\src\main\java\com\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6159F8D-D899-4410-8490-2956E871CE23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="153">
   <si>
     <t>company_name</t>
   </si>
@@ -370,17 +376,125 @@
   </si>
   <si>
     <t>[confidentiality:read_data;authirization:gain_privileges;integrity:modify_data]</t>
+  </si>
+  <si>
+    <t>alibaba</t>
+  </si>
+  <si>
+    <t>bmw</t>
+  </si>
+  <si>
+    <t>audi</t>
+  </si>
+  <si>
+    <t>porshe</t>
+  </si>
+  <si>
+    <t>volkswagen</t>
+  </si>
+  <si>
+    <t>toyota</t>
+  </si>
+  <si>
+    <t>hyundai</t>
+  </si>
+  <si>
+    <t>daimler</t>
+  </si>
+  <si>
+    <t>ford</t>
+  </si>
+  <si>
+    <t>verizon</t>
+  </si>
+  <si>
+    <t>ximedes</t>
+  </si>
+  <si>
+    <t>symphony</t>
+  </si>
+  <si>
+    <t>pretexting-via-tech-support</t>
+  </si>
+  <si>
+    <t>pretexting-via-delivery-person</t>
+  </si>
+  <si>
+    <t>pretexting-via-phone</t>
+  </si>
+  <si>
+    <t>influence-perception-of-reciprocation</t>
+  </si>
+  <si>
+    <t>influence-perception-of-scarcity</t>
+  </si>
+  <si>
+    <t>influence-perception-of-authority</t>
+  </si>
+  <si>
+    <t>influence-perception-of-liking</t>
+  </si>
+  <si>
+    <t>influence-perception-of-consensus-or-social-proof</t>
+  </si>
+  <si>
+    <t>target-influence-via-framing</t>
+  </si>
+  <si>
+    <t>influence-via-modes-of-thinking</t>
+  </si>
+  <si>
+    <t>target-influence-via-interview-and-interrogation</t>
+  </si>
+  <si>
+    <t>exor</t>
+  </si>
+  <si>
+    <t>mitsubishi</t>
+  </si>
+  <si>
+    <t>[pretexting-via-tech-support, [suspicious-conversation-phone-call,suspicious-conversation-phone-message,suspicious-conversation-email,suspicious-conversation-visit,pop-up-windows,credentials-theft]</t>
+  </si>
+  <si>
+    <t>[pretexting-via-tech-support, [suspicious-conversation-phone-call,suspicious-conversation-phone-message,suspicious-conversation-email,suspicious-conversation-visit,credentials-theft]</t>
+  </si>
+  <si>
+    <t>[pretexting-via-tech-support, [suspicious-conversation-phone-call,suspicious-conversation-phone-message,suspicious-conversation-emai,credentials-theft]</t>
+  </si>
+  <si>
+    <t>[suspicious-conversation-phone-call,suspicious-conversation-phone-message,suspicious-conversation-visit]</t>
+  </si>
+  <si>
+    <t>[suspicious-conversation-phone-call,suspicious-conversation-visit]</t>
+  </si>
+  <si>
+    <t>[suspicious-conversation-phone-call,suspicious-conversation-phone-message,credentials-theft]</t>
+  </si>
+  <si>
+    <t>[suspicious-conversation-phone-call,credentials-theft]</t>
+  </si>
+  <si>
+    <t>[suspicious-conversation-phone-call,suspicious-conversation-phone-message,suspicious-conversation-email,ad-click,pop-up-windows,credentials-theft]</t>
+  </si>
+  <si>
+    <t>[suspicious-conversation-phone-call,suspicious-conversation-phone-message,suspicious-conversation-email,suspicious-conversation-visit,credentials-theft]</t>
+  </si>
+  <si>
+    <t>[suspicious-conversation-phone-call,suspicious-conversation-phone-message,suspicious-conversation-visit,credentials-theft]</t>
+  </si>
+  <si>
+    <t>[suspicious-conversation-phone-call,suspicious-conversation-phone-message,suspicious-conversation-email,ad-click,pop-up-windows]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,36 +853,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="119.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="56.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="65.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="205" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="65.28515625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -806,7 +920,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -844,7 +958,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -882,7 +996,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -920,7 +1034,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -958,7 +1072,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -996,7 +1110,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1034,7 +1148,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1072,7 +1186,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1110,7 +1224,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1148,7 +1262,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1186,7 +1300,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1224,7 +1338,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1262,7 +1376,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1300,7 +1414,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1338,7 +1452,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1376,7 +1490,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1414,7 +1528,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1452,7 +1566,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1490,7 +1604,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1528,7 +1642,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1566,7 +1680,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1604,7 +1718,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1642,7 +1756,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1680,7 +1794,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1718,7 +1832,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1756,7 +1870,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1794,7 +1908,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1832,7 +1946,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1870,7 +1984,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -1908,7 +2022,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -1946,7 +2060,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -1984,7 +2098,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -2022,7 +2136,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2060,7 +2174,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -2098,7 +2212,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -2136,7 +2250,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -2174,7 +2288,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -2212,7 +2326,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -2228,6 +2342,9 @@
       <c r="E39" s="6">
         <v>52000</v>
       </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
       <c r="G39" t="s">
         <v>25</v>
       </c>
@@ -2247,7 +2364,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -2285,7 +2402,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -2301,6 +2418,9 @@
       <c r="E41" s="6">
         <v>49000</v>
       </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
       <c r="G41" t="s">
         <v>25</v>
       </c>
@@ -2320,7 +2440,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -2358,7 +2478,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -2396,7 +2516,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -2434,7 +2554,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -2472,7 +2592,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -2510,7 +2630,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -2548,7 +2668,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -2586,7 +2706,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -2624,7 +2744,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2662,7 +2782,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2700,7 +2820,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -2738,7 +2858,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -2776,11 +2896,1259 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
-      <c r="B54" s="5"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="B55" s="5"/>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="5">
+        <v>38557</v>
+      </c>
+      <c r="C54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" t="s">
+        <v>142</v>
+      </c>
+      <c r="E54" s="6">
+        <v>107</v>
+      </c>
+      <c r="F54" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" t="s">
+        <v>95</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J54" t="s">
+        <v>107</v>
+      </c>
+      <c r="K54" t="s">
+        <v>92</v>
+      </c>
+      <c r="L54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" s="5">
+        <v>38778</v>
+      </c>
+      <c r="C55" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" s="6">
+        <v>100</v>
+      </c>
+      <c r="F55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" t="s">
+        <v>95</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J55" t="s">
+        <v>107</v>
+      </c>
+      <c r="K55" t="s">
+        <v>92</v>
+      </c>
+      <c r="L55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="4">
+        <v>38851</v>
+      </c>
+      <c r="C56" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" t="s">
+        <v>144</v>
+      </c>
+      <c r="E56" s="6">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" t="s">
+        <v>95</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J56" t="s">
+        <v>107</v>
+      </c>
+      <c r="K56" t="s">
+        <v>92</v>
+      </c>
+      <c r="L56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="4">
+        <v>39101</v>
+      </c>
+      <c r="C57" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" s="6">
+        <v>250</v>
+      </c>
+      <c r="F57" t="s">
+        <v>44</v>
+      </c>
+      <c r="G57" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" t="s">
+        <v>95</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J57" t="s">
+        <v>107</v>
+      </c>
+      <c r="K57" t="s">
+        <v>92</v>
+      </c>
+      <c r="L57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="4">
+        <v>39166</v>
+      </c>
+      <c r="C58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" s="6">
+        <v>320</v>
+      </c>
+      <c r="F58" t="s">
+        <v>44</v>
+      </c>
+      <c r="G58" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" t="s">
+        <v>95</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J58" t="s">
+        <v>107</v>
+      </c>
+      <c r="K58" t="s">
+        <v>92</v>
+      </c>
+      <c r="L58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="4">
+        <v>39318</v>
+      </c>
+      <c r="C59" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" s="6">
+        <v>350</v>
+      </c>
+      <c r="F59" t="s">
+        <v>44</v>
+      </c>
+      <c r="G59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" t="s">
+        <v>95</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J59" t="s">
+        <v>107</v>
+      </c>
+      <c r="K59" t="s">
+        <v>92</v>
+      </c>
+      <c r="L59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="4">
+        <v>39473</v>
+      </c>
+      <c r="C60" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60" t="s">
+        <v>147</v>
+      </c>
+      <c r="E60" s="6">
+        <v>110000</v>
+      </c>
+      <c r="F60" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" t="s">
+        <v>95</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J60" t="s">
+        <v>107</v>
+      </c>
+      <c r="K60" t="s">
+        <v>92</v>
+      </c>
+      <c r="L60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="4">
+        <v>39529</v>
+      </c>
+      <c r="C61" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" s="6">
+        <v>112000</v>
+      </c>
+      <c r="F61" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61" t="s">
+        <v>95</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J61" t="s">
+        <v>107</v>
+      </c>
+      <c r="K61" t="s">
+        <v>92</v>
+      </c>
+      <c r="L61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="4">
+        <v>39538</v>
+      </c>
+      <c r="C62" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" t="s">
+        <v>147</v>
+      </c>
+      <c r="E62" s="6">
+        <v>120000</v>
+      </c>
+      <c r="F62" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J62" t="s">
+        <v>107</v>
+      </c>
+      <c r="K62" t="s">
+        <v>92</v>
+      </c>
+      <c r="L62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" s="4">
+        <v>40141</v>
+      </c>
+      <c r="C63" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" s="6">
+        <v>34000</v>
+      </c>
+      <c r="F63" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" t="s">
+        <v>95</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J63" t="s">
+        <v>110</v>
+      </c>
+      <c r="K63" t="s">
+        <v>92</v>
+      </c>
+      <c r="L63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="4">
+        <v>40154</v>
+      </c>
+      <c r="C64" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" s="6">
+        <v>50000</v>
+      </c>
+      <c r="F64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" t="s">
+        <v>95</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J64" t="s">
+        <v>110</v>
+      </c>
+      <c r="K64" t="s">
+        <v>92</v>
+      </c>
+      <c r="L64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="4">
+        <v>40598</v>
+      </c>
+      <c r="C65" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65" s="6">
+        <v>70430</v>
+      </c>
+      <c r="F65" t="s">
+        <v>66</v>
+      </c>
+      <c r="G65" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" t="s">
+        <v>95</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J65" t="s">
+        <v>110</v>
+      </c>
+      <c r="K65" t="s">
+        <v>92</v>
+      </c>
+      <c r="L65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="4">
+        <v>40612</v>
+      </c>
+      <c r="C66" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" t="s">
+        <v>149</v>
+      </c>
+      <c r="E66" s="6">
+        <v>79200</v>
+      </c>
+      <c r="F66" t="s">
+        <v>66</v>
+      </c>
+      <c r="G66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" t="s">
+        <v>95</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J66" t="s">
+        <v>110</v>
+      </c>
+      <c r="K66" t="s">
+        <v>90</v>
+      </c>
+      <c r="L66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" s="5">
+        <v>42024</v>
+      </c>
+      <c r="C67" t="s">
+        <v>133</v>
+      </c>
+      <c r="D67" t="s">
+        <v>149</v>
+      </c>
+      <c r="E67" s="6">
+        <v>21000</v>
+      </c>
+      <c r="F67" t="s">
+        <v>66</v>
+      </c>
+      <c r="G67" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" t="s">
+        <v>95</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J67" t="s">
+        <v>110</v>
+      </c>
+      <c r="K67" t="s">
+        <v>90</v>
+      </c>
+      <c r="L67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="4">
+        <v>43105</v>
+      </c>
+      <c r="C68" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" t="s">
+        <v>149</v>
+      </c>
+      <c r="E68" s="6">
+        <v>27000</v>
+      </c>
+      <c r="F68" t="s">
+        <v>66</v>
+      </c>
+      <c r="G68" t="s">
+        <v>52</v>
+      </c>
+      <c r="H68" t="s">
+        <v>95</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J68" t="s">
+        <v>110</v>
+      </c>
+      <c r="K68" t="s">
+        <v>90</v>
+      </c>
+      <c r="L68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" s="4">
+        <v>43120</v>
+      </c>
+      <c r="C69" t="s">
+        <v>134</v>
+      </c>
+      <c r="D69" t="s">
+        <v>149</v>
+      </c>
+      <c r="E69" s="6">
+        <v>300000</v>
+      </c>
+      <c r="F69" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" t="s">
+        <v>52</v>
+      </c>
+      <c r="H69" t="s">
+        <v>95</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J69" t="s">
+        <v>110</v>
+      </c>
+      <c r="K69" t="s">
+        <v>90</v>
+      </c>
+      <c r="L69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="4">
+        <v>43436</v>
+      </c>
+      <c r="C70" t="s">
+        <v>134</v>
+      </c>
+      <c r="D70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E70" s="6">
+        <v>312000</v>
+      </c>
+      <c r="F70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" t="s">
+        <v>52</v>
+      </c>
+      <c r="H70" t="s">
+        <v>95</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J70" t="s">
+        <v>110</v>
+      </c>
+      <c r="K70" t="s">
+        <v>90</v>
+      </c>
+      <c r="L70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" s="4">
+        <v>43819</v>
+      </c>
+      <c r="C71" t="s">
+        <v>134</v>
+      </c>
+      <c r="D71" t="s">
+        <v>149</v>
+      </c>
+      <c r="E71" s="6">
+        <v>359542</v>
+      </c>
+      <c r="F71" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" t="s">
+        <v>42</v>
+      </c>
+      <c r="H71" t="s">
+        <v>95</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J71" t="s">
+        <v>110</v>
+      </c>
+      <c r="K71" t="s">
+        <v>90</v>
+      </c>
+      <c r="L71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="4">
+        <v>43960</v>
+      </c>
+      <c r="C72" t="s">
+        <v>135</v>
+      </c>
+      <c r="D72" t="s">
+        <v>150</v>
+      </c>
+      <c r="E72" s="6">
+        <v>360000</v>
+      </c>
+      <c r="F72" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" t="s">
+        <v>42</v>
+      </c>
+      <c r="H72" t="s">
+        <v>95</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J72" t="s">
+        <v>110</v>
+      </c>
+      <c r="K72" t="s">
+        <v>92</v>
+      </c>
+      <c r="L72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="4">
+        <v>44036</v>
+      </c>
+      <c r="C73" t="s">
+        <v>135</v>
+      </c>
+      <c r="D73" t="s">
+        <v>150</v>
+      </c>
+      <c r="E73" s="6">
+        <v>104731</v>
+      </c>
+      <c r="F73" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>42</v>
+      </c>
+      <c r="H73" t="s">
+        <v>95</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J73" t="s">
+        <v>110</v>
+      </c>
+      <c r="K73" t="s">
+        <v>92</v>
+      </c>
+      <c r="L73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" s="4">
+        <v>43834</v>
+      </c>
+      <c r="C74" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" t="s">
+        <v>150</v>
+      </c>
+      <c r="E74" s="6">
+        <v>96000</v>
+      </c>
+      <c r="F74" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H74" t="s">
+        <v>95</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J74" t="s">
+        <v>110</v>
+      </c>
+      <c r="K74" t="s">
+        <v>92</v>
+      </c>
+      <c r="L74" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" s="5">
+        <v>43931</v>
+      </c>
+      <c r="C75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D75" t="s">
+        <v>149</v>
+      </c>
+      <c r="E75" s="6">
+        <v>288481</v>
+      </c>
+      <c r="F75" t="s">
+        <v>44</v>
+      </c>
+      <c r="G75" t="s">
+        <v>25</v>
+      </c>
+      <c r="H75" t="s">
+        <v>95</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J75" t="s">
+        <v>110</v>
+      </c>
+      <c r="K75" t="s">
+        <v>95</v>
+      </c>
+      <c r="L75" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="5">
+        <v>44318</v>
+      </c>
+      <c r="C76" t="s">
+        <v>136</v>
+      </c>
+      <c r="D76" t="s">
+        <v>149</v>
+      </c>
+      <c r="E76" s="6">
+        <v>289481</v>
+      </c>
+      <c r="F76" t="s">
+        <v>44</v>
+      </c>
+      <c r="G76" t="s">
+        <v>25</v>
+      </c>
+      <c r="H76" t="s">
+        <v>95</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J76" t="s">
+        <v>110</v>
+      </c>
+      <c r="K76" t="s">
+        <v>95</v>
+      </c>
+      <c r="L76" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="5">
+        <v>40385</v>
+      </c>
+      <c r="C77" t="s">
+        <v>136</v>
+      </c>
+      <c r="D77" t="s">
+        <v>149</v>
+      </c>
+      <c r="E77" s="6">
+        <v>190000</v>
+      </c>
+      <c r="F77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" t="s">
+        <v>25</v>
+      </c>
+      <c r="H77" t="s">
+        <v>95</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J77" t="s">
+        <v>110</v>
+      </c>
+      <c r="K77" t="s">
+        <v>95</v>
+      </c>
+      <c r="L77" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" s="5">
+        <v>40557</v>
+      </c>
+      <c r="C78" t="s">
+        <v>137</v>
+      </c>
+      <c r="D78" t="s">
+        <v>149</v>
+      </c>
+      <c r="E78" s="6">
+        <v>230000</v>
+      </c>
+      <c r="F78" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" t="s">
+        <v>92</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J78" t="s">
+        <v>107</v>
+      </c>
+      <c r="K78" t="s">
+        <v>95</v>
+      </c>
+      <c r="L78" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>126</v>
+      </c>
+      <c r="B79" s="5">
+        <v>40929</v>
+      </c>
+      <c r="C79" t="s">
+        <v>137</v>
+      </c>
+      <c r="D79" t="s">
+        <v>149</v>
+      </c>
+      <c r="E79" s="6">
+        <v>132200</v>
+      </c>
+      <c r="F79" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" t="s">
+        <v>92</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J79" t="s">
+        <v>107</v>
+      </c>
+      <c r="K79" t="s">
+        <v>95</v>
+      </c>
+      <c r="L79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" s="5">
+        <v>41008</v>
+      </c>
+      <c r="C80" t="s">
+        <v>137</v>
+      </c>
+      <c r="D80" t="s">
+        <v>149</v>
+      </c>
+      <c r="E80" s="6">
+        <v>132203</v>
+      </c>
+      <c r="F80" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" t="s">
+        <v>92</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J80" t="s">
+        <v>107</v>
+      </c>
+      <c r="K80" t="s">
+        <v>95</v>
+      </c>
+      <c r="L80" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>126</v>
+      </c>
+      <c r="B81" s="5">
+        <v>42262</v>
+      </c>
+      <c r="C81" t="s">
+        <v>138</v>
+      </c>
+      <c r="D81" t="s">
+        <v>151</v>
+      </c>
+      <c r="E81" s="6">
+        <v>143000</v>
+      </c>
+      <c r="F81" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" t="s">
+        <v>92</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J81" t="s">
+        <v>110</v>
+      </c>
+      <c r="K81" t="s">
+        <v>92</v>
+      </c>
+      <c r="L81" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>140</v>
+      </c>
+      <c r="B82" s="5">
+        <v>41791</v>
+      </c>
+      <c r="C82" t="s">
+        <v>138</v>
+      </c>
+      <c r="D82" t="s">
+        <v>151</v>
+      </c>
+      <c r="E82" s="6">
+        <v>123</v>
+      </c>
+      <c r="F82" t="s">
+        <v>66</v>
+      </c>
+      <c r="G82" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" t="s">
+        <v>92</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J82" t="s">
+        <v>110</v>
+      </c>
+      <c r="K82" t="s">
+        <v>92</v>
+      </c>
+      <c r="L82" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>140</v>
+      </c>
+      <c r="B83" s="5">
+        <v>41772</v>
+      </c>
+      <c r="C83" t="s">
+        <v>138</v>
+      </c>
+      <c r="D83" t="s">
+        <v>151</v>
+      </c>
+      <c r="E83" s="6">
+        <v>8</v>
+      </c>
+      <c r="F83" t="s">
+        <v>66</v>
+      </c>
+      <c r="G83" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" t="s">
+        <v>92</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J83" t="s">
+        <v>110</v>
+      </c>
+      <c r="K83" t="s">
+        <v>92</v>
+      </c>
+      <c r="L83" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" s="5">
+        <v>42859</v>
+      </c>
+      <c r="C84" t="s">
+        <v>139</v>
+      </c>
+      <c r="D84" t="s">
+        <v>152</v>
+      </c>
+      <c r="E84" s="6">
+        <v>6</v>
+      </c>
+      <c r="F84" t="s">
+        <v>66</v>
+      </c>
+      <c r="G84" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" t="s">
+        <v>90</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J84" t="s">
+        <v>110</v>
+      </c>
+      <c r="K84" t="s">
+        <v>92</v>
+      </c>
+      <c r="L84" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>141</v>
+      </c>
+      <c r="B85" s="5">
+        <v>44012</v>
+      </c>
+      <c r="C85" t="s">
+        <v>139</v>
+      </c>
+      <c r="D85" t="s">
+        <v>152</v>
+      </c>
+      <c r="E85" s="6">
+        <v>31</v>
+      </c>
+      <c r="F85" t="s">
+        <v>66</v>
+      </c>
+      <c r="G85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" t="s">
+        <v>90</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J85" t="s">
+        <v>110</v>
+      </c>
+      <c r="K85" t="s">
+        <v>92</v>
+      </c>
+      <c r="L85" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" s="5">
+        <v>43568</v>
+      </c>
+      <c r="C86" t="s">
+        <v>139</v>
+      </c>
+      <c r="D86" t="s">
+        <v>152</v>
+      </c>
+      <c r="E86" s="6">
+        <v>234</v>
+      </c>
+      <c r="F86" t="s">
+        <v>66</v>
+      </c>
+      <c r="G86" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" t="s">
+        <v>90</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J86" t="s">
+        <v>110</v>
+      </c>
+      <c r="K86" t="s">
+        <v>92</v>
+      </c>
+      <c r="L86" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/knowledge-engineering/src/main/java/com/data/data.xlsx
+++ b/knowledge-engineering/src/main/java/com/data/data.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Fax\cetvrta godina\drugi semestar\inzinjering znanja\IZ_Project\knowledge-engineering\src\main\java\com\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6159F8D-D899-4410-8490-2956E871CE23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="163">
   <si>
     <t>company_name</t>
   </si>
@@ -484,17 +478,47 @@
   </si>
   <si>
     <t>[suspicious-conversation-phone-call,suspicious-conversation-phone-message,suspicious-conversation-email,ad-click,pop-up-windows]</t>
+  </si>
+  <si>
+    <t>pharming</t>
+  </si>
+  <si>
+    <t>[suspicious-link,suspicious-website,credential-re-entering,credentials-theft,virus-detection]</t>
+  </si>
+  <si>
+    <t>vulnerable_DNS</t>
+  </si>
+  <si>
+    <t>voice-phishing</t>
+  </si>
+  <si>
+    <t>[suspicious-conversation-phone-call,credentials-theft,frequents-spams]</t>
+  </si>
+  <si>
+    <t>sound-squatting</t>
+  </si>
+  <si>
+    <t>[suspicious-conversation-email,suspicious-link,suspicious-website,credentials-theft,frequents-spams]</t>
+  </si>
+  <si>
+    <t>homograph-attack-via-homoglyphs</t>
+  </si>
+  <si>
+    <t>sia</t>
+  </si>
+  <si>
+    <t>bit-squatting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -853,36 +877,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:XFD86"/>
+    <sheetView tabSelected="1" topLeftCell="E64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L101" sqref="L101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="205" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="56.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="65.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="56.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="65.33203125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -920,7 +944,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -958,7 +982,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -996,7 +1020,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1034,7 +1058,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1072,7 +1096,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1110,7 +1134,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1148,7 +1172,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1186,7 +1210,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1224,7 +1248,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1262,7 +1286,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1300,7 +1324,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1338,7 +1362,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1376,7 +1400,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1414,7 +1438,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1452,7 +1476,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1490,7 +1514,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1528,7 +1552,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1566,7 +1590,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1604,7 +1628,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1642,7 +1666,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1680,7 +1704,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1718,7 +1742,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1756,7 +1780,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1794,7 +1818,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1832,7 +1856,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1870,7 +1894,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1908,7 +1932,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1946,7 +1970,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1984,7 +2008,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -2022,7 +2046,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -2060,7 +2084,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -2098,7 +2122,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -2136,7 +2160,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2174,7 +2198,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -2212,7 +2236,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -2250,7 +2274,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -2288,7 +2312,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -2326,7 +2350,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -2364,7 +2388,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -2402,7 +2426,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -2440,7 +2464,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -2478,7 +2502,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -2516,7 +2540,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -2554,7 +2578,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -2592,7 +2616,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -2630,7 +2654,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -2668,7 +2692,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -2706,7 +2730,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -2744,7 +2768,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2782,7 +2806,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2820,7 +2844,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -2858,7 +2882,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -2896,7 +2920,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>127</v>
       </c>
@@ -2934,7 +2958,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>127</v>
       </c>
@@ -2972,7 +2996,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>127</v>
       </c>
@@ -3010,7 +3034,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>128</v>
       </c>
@@ -3048,7 +3072,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>128</v>
       </c>
@@ -3086,7 +3110,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>128</v>
       </c>
@@ -3124,7 +3148,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
         <v>117</v>
       </c>
@@ -3162,7 +3186,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>117</v>
       </c>
@@ -3200,7 +3224,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>117</v>
       </c>
@@ -3238,7 +3262,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>118</v>
       </c>
@@ -3276,7 +3300,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>118</v>
       </c>
@@ -3314,7 +3338,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
         <v>119</v>
       </c>
@@ -3352,7 +3376,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>119</v>
       </c>
@@ -3390,7 +3414,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
         <v>120</v>
       </c>
@@ -3428,7 +3452,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
         <v>120</v>
       </c>
@@ -3466,7 +3490,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
         <v>121</v>
       </c>
@@ -3504,7 +3528,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>121</v>
       </c>
@@ -3542,7 +3566,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
         <v>122</v>
       </c>
@@ -3580,7 +3604,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
         <v>122</v>
       </c>
@@ -3618,7 +3642,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
         <v>123</v>
       </c>
@@ -3656,7 +3680,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
         <v>123</v>
       </c>
@@ -3694,7 +3718,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
         <v>124</v>
       </c>
@@ -3732,7 +3756,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
         <v>124</v>
       </c>
@@ -3770,7 +3794,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
         <v>125</v>
       </c>
@@ -3808,7 +3832,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
         <v>125</v>
       </c>
@@ -3846,7 +3870,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
         <v>126</v>
       </c>
@@ -3884,7 +3908,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
         <v>126</v>
       </c>
@@ -3922,7 +3946,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12">
       <c r="A81" t="s">
         <v>126</v>
       </c>
@@ -3960,7 +3984,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12">
       <c r="A82" t="s">
         <v>140</v>
       </c>
@@ -3998,7 +4022,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12">
       <c r="A83" t="s">
         <v>140</v>
       </c>
@@ -4036,7 +4060,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12">
       <c r="A84" t="s">
         <v>141</v>
       </c>
@@ -4074,7 +4098,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12">
       <c r="A85" t="s">
         <v>141</v>
       </c>
@@ -4112,7 +4136,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12">
       <c r="A86" t="s">
         <v>141</v>
       </c>
@@ -4148,6 +4172,567 @@
       </c>
       <c r="L86" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" s="4">
+        <v>43593</v>
+      </c>
+      <c r="C87" t="s">
+        <v>153</v>
+      </c>
+      <c r="D87" t="s">
+        <v>154</v>
+      </c>
+      <c r="E87" s="6">
+        <v>350</v>
+      </c>
+      <c r="F87" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" t="s">
+        <v>92</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="J87" t="s">
+        <v>111</v>
+      </c>
+      <c r="K87" t="s">
+        <v>90</v>
+      </c>
+      <c r="L87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" s="4">
+        <v>44114</v>
+      </c>
+      <c r="C88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E88" s="6">
+        <v>800</v>
+      </c>
+      <c r="F88" t="s">
+        <v>19</v>
+      </c>
+      <c r="G88" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" t="s">
+        <v>92</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="J88" t="s">
+        <v>111</v>
+      </c>
+      <c r="K88" t="s">
+        <v>90</v>
+      </c>
+      <c r="L88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" s="4">
+        <v>44232</v>
+      </c>
+      <c r="C89" t="s">
+        <v>153</v>
+      </c>
+      <c r="D89" t="s">
+        <v>154</v>
+      </c>
+      <c r="E89" s="6">
+        <v>150000</v>
+      </c>
+      <c r="F89" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" t="s">
+        <v>92</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="J89" t="s">
+        <v>111</v>
+      </c>
+      <c r="K89" t="s">
+        <v>90</v>
+      </c>
+      <c r="L89" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" t="s">
+        <v>60</v>
+      </c>
+      <c r="B90" s="4">
+        <v>40001</v>
+      </c>
+      <c r="C90" t="s">
+        <v>156</v>
+      </c>
+      <c r="D90" t="s">
+        <v>157</v>
+      </c>
+      <c r="E90" s="6">
+        <v>150</v>
+      </c>
+      <c r="F90" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" t="s">
+        <v>92</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J90" t="s">
+        <v>105</v>
+      </c>
+      <c r="K90" t="s">
+        <v>90</v>
+      </c>
+      <c r="L90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" s="4">
+        <v>41620</v>
+      </c>
+      <c r="C91" t="s">
+        <v>156</v>
+      </c>
+      <c r="D91" t="s">
+        <v>157</v>
+      </c>
+      <c r="E91" s="6">
+        <v>200000</v>
+      </c>
+      <c r="F91" t="s">
+        <v>81</v>
+      </c>
+      <c r="G91" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" t="s">
+        <v>92</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J91" t="s">
+        <v>105</v>
+      </c>
+      <c r="K91" t="s">
+        <v>90</v>
+      </c>
+      <c r="L91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" t="s">
+        <v>127</v>
+      </c>
+      <c r="B92" s="4">
+        <v>43592</v>
+      </c>
+      <c r="C92" t="s">
+        <v>156</v>
+      </c>
+      <c r="D92" t="s">
+        <v>157</v>
+      </c>
+      <c r="E92" s="6">
+        <v>90</v>
+      </c>
+      <c r="F92" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" t="s">
+        <v>25</v>
+      </c>
+      <c r="H92" t="s">
+        <v>92</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J92" t="s">
+        <v>105</v>
+      </c>
+      <c r="K92" t="s">
+        <v>90</v>
+      </c>
+      <c r="L92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" t="s">
+        <v>120</v>
+      </c>
+      <c r="B93" s="4">
+        <v>43163</v>
+      </c>
+      <c r="C93" t="s">
+        <v>158</v>
+      </c>
+      <c r="D93" t="s">
+        <v>159</v>
+      </c>
+      <c r="E93" s="6">
+        <v>160000</v>
+      </c>
+      <c r="F93" t="s">
+        <v>66</v>
+      </c>
+      <c r="G93" t="s">
+        <v>52</v>
+      </c>
+      <c r="H93" t="s">
+        <v>95</v>
+      </c>
+      <c r="I93" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J93" t="s">
+        <v>107</v>
+      </c>
+      <c r="K93" t="s">
+        <v>95</v>
+      </c>
+      <c r="L93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94" s="4">
+        <v>38635</v>
+      </c>
+      <c r="C94" t="s">
+        <v>158</v>
+      </c>
+      <c r="D94" t="s">
+        <v>159</v>
+      </c>
+      <c r="E94" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F94" t="s">
+        <v>66</v>
+      </c>
+      <c r="G94" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" t="s">
+        <v>95</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J94" t="s">
+        <v>107</v>
+      </c>
+      <c r="K94" t="s">
+        <v>95</v>
+      </c>
+      <c r="L94" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" t="s">
+        <v>60</v>
+      </c>
+      <c r="B95" s="4">
+        <v>41132</v>
+      </c>
+      <c r="C95" t="s">
+        <v>158</v>
+      </c>
+      <c r="D95" t="s">
+        <v>159</v>
+      </c>
+      <c r="E95" s="6">
+        <v>200</v>
+      </c>
+      <c r="F95" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" t="s">
+        <v>25</v>
+      </c>
+      <c r="H95" t="s">
+        <v>95</v>
+      </c>
+      <c r="I95" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J95" t="s">
+        <v>107</v>
+      </c>
+      <c r="K95" t="s">
+        <v>95</v>
+      </c>
+      <c r="L95" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" t="s">
+        <v>141</v>
+      </c>
+      <c r="B96" s="4">
+        <v>43625</v>
+      </c>
+      <c r="C96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D96" t="s">
+        <v>159</v>
+      </c>
+      <c r="E96" s="6">
+        <v>240000</v>
+      </c>
+      <c r="F96" t="s">
+        <v>66</v>
+      </c>
+      <c r="G96" t="s">
+        <v>161</v>
+      </c>
+      <c r="H96" t="s">
+        <v>95</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J96" t="s">
+        <v>107</v>
+      </c>
+      <c r="K96" t="s">
+        <v>95</v>
+      </c>
+      <c r="L96" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97" s="4">
+        <v>44146</v>
+      </c>
+      <c r="C97" t="s">
+        <v>160</v>
+      </c>
+      <c r="D97" t="s">
+        <v>159</v>
+      </c>
+      <c r="E97" s="6">
+        <v>300000</v>
+      </c>
+      <c r="F97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G97" t="s">
+        <v>42</v>
+      </c>
+      <c r="H97" t="s">
+        <v>95</v>
+      </c>
+      <c r="I97" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J97" t="s">
+        <v>107</v>
+      </c>
+      <c r="K97" t="s">
+        <v>95</v>
+      </c>
+      <c r="L97" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" t="s">
+        <v>57</v>
+      </c>
+      <c r="B98" s="4">
+        <v>39578</v>
+      </c>
+      <c r="C98" t="s">
+        <v>160</v>
+      </c>
+      <c r="D98" t="s">
+        <v>159</v>
+      </c>
+      <c r="E98" s="6">
+        <v>400000</v>
+      </c>
+      <c r="F98" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" t="s">
+        <v>95</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J98" t="s">
+        <v>107</v>
+      </c>
+      <c r="K98" t="s">
+        <v>95</v>
+      </c>
+      <c r="L98" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="4">
+        <v>43120</v>
+      </c>
+      <c r="C99" t="s">
+        <v>162</v>
+      </c>
+      <c r="D99" t="s">
+        <v>159</v>
+      </c>
+      <c r="E99" s="6">
+        <v>100</v>
+      </c>
+      <c r="G99" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" t="s">
+        <v>95</v>
+      </c>
+      <c r="I99" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J99" t="s">
+        <v>107</v>
+      </c>
+      <c r="K99" t="s">
+        <v>95</v>
+      </c>
+      <c r="L99" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" t="s">
+        <v>60</v>
+      </c>
+      <c r="B100" s="4">
+        <v>40612</v>
+      </c>
+      <c r="C100" t="s">
+        <v>162</v>
+      </c>
+      <c r="D100" t="s">
+        <v>159</v>
+      </c>
+      <c r="E100" s="6">
+        <v>350000</v>
+      </c>
+      <c r="G100" t="s">
+        <v>25</v>
+      </c>
+      <c r="H100" t="s">
+        <v>95</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J100" t="s">
+        <v>107</v>
+      </c>
+      <c r="K100" t="s">
+        <v>95</v>
+      </c>
+      <c r="L100" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" t="s">
+        <v>122</v>
+      </c>
+      <c r="B101" s="4">
+        <v>43568</v>
+      </c>
+      <c r="C101" t="s">
+        <v>162</v>
+      </c>
+      <c r="D101" t="s">
+        <v>159</v>
+      </c>
+      <c r="E101" s="6">
+        <v>190000</v>
+      </c>
+      <c r="G101" t="s">
+        <v>42</v>
+      </c>
+      <c r="H101" t="s">
+        <v>95</v>
+      </c>
+      <c r="I101" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J101" t="s">
+        <v>107</v>
+      </c>
+      <c r="K101" t="s">
+        <v>95</v>
+      </c>
+      <c r="L101" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/knowledge-engineering/src/main/java/com/data/data.xlsx
+++ b/knowledge-engineering/src/main/java/com/data/data.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\inz\IZ_Project\knowledge-engineering\src\main\java\com\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
@@ -10,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="163">
   <si>
     <t>company_name</t>
   </si>
@@ -513,12 +518,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -877,21 +882,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L101" sqref="L101"/>
+    <sheetView tabSelected="1" topLeftCell="E88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
@@ -906,7 +911,7 @@
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -944,7 +949,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -982,7 +987,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1020,7 +1025,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1058,7 +1063,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1096,7 +1101,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1134,7 +1139,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1172,7 +1177,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1210,7 +1215,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1248,7 +1253,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1286,7 +1291,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1324,7 +1329,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1362,7 +1367,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1400,7 +1405,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1438,7 +1443,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1476,7 +1481,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1514,7 +1519,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1552,7 +1557,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1590,7 +1595,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1628,7 +1633,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1666,7 +1671,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1704,7 +1709,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1742,7 +1747,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1780,7 +1785,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1818,7 +1823,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1856,7 +1861,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1894,7 +1899,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1932,7 +1937,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1970,7 +1975,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -2008,7 +2013,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -2046,7 +2051,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -2084,7 +2089,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -2122,7 +2127,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -2160,7 +2165,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2198,7 +2203,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -2236,7 +2241,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -2274,7 +2279,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -2312,7 +2317,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -2350,7 +2355,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -2388,7 +2393,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -2426,7 +2431,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -2464,7 +2469,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -2502,7 +2507,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -2540,7 +2545,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -2578,7 +2583,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -2616,7 +2621,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -2654,7 +2659,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -2692,7 +2697,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -2730,7 +2735,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -2768,7 +2773,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2806,7 +2811,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2844,7 +2849,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -2882,7 +2887,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -2920,7 +2925,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>127</v>
       </c>
@@ -2958,7 +2963,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>127</v>
       </c>
@@ -2996,7 +3001,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>127</v>
       </c>
@@ -3034,7 +3039,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>128</v>
       </c>
@@ -3072,7 +3077,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>128</v>
       </c>
@@ -3110,7 +3115,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>128</v>
       </c>
@@ -3148,7 +3153,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>117</v>
       </c>
@@ -3186,7 +3191,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>117</v>
       </c>
@@ -3224,7 +3229,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>117</v>
       </c>
@@ -3262,7 +3267,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>118</v>
       </c>
@@ -3300,7 +3305,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>118</v>
       </c>
@@ -3338,7 +3343,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>119</v>
       </c>
@@ -3376,7 +3381,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>119</v>
       </c>
@@ -3414,7 +3419,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>120</v>
       </c>
@@ -3452,7 +3457,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>120</v>
       </c>
@@ -3490,7 +3495,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>121</v>
       </c>
@@ -3528,7 +3533,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>121</v>
       </c>
@@ -3566,7 +3571,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>122</v>
       </c>
@@ -3604,7 +3609,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>122</v>
       </c>
@@ -3642,7 +3647,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>123</v>
       </c>
@@ -3680,7 +3685,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>123</v>
       </c>
@@ -3718,7 +3723,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>124</v>
       </c>
@@ -3756,7 +3761,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>124</v>
       </c>
@@ -3794,7 +3799,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>125</v>
       </c>
@@ -3832,7 +3837,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>125</v>
       </c>
@@ -3870,7 +3875,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>126</v>
       </c>
@@ -3908,7 +3913,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>126</v>
       </c>
@@ -3946,7 +3951,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>126</v>
       </c>
@@ -3984,7 +3989,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>140</v>
       </c>
@@ -4022,7 +4027,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>140</v>
       </c>
@@ -4060,7 +4065,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>141</v>
       </c>
@@ -4098,7 +4103,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>141</v>
       </c>
@@ -4136,7 +4141,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>141</v>
       </c>
@@ -4174,7 +4179,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -4212,7 +4217,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -4250,7 +4255,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>24</v>
       </c>
@@ -4288,7 +4293,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>60</v>
       </c>
@@ -4326,7 +4331,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>62</v>
       </c>
@@ -4364,7 +4369,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>127</v>
       </c>
@@ -4402,7 +4407,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>120</v>
       </c>
@@ -4440,7 +4445,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>120</v>
       </c>
@@ -4478,7 +4483,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>60</v>
       </c>
@@ -4516,7 +4521,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>141</v>
       </c>
@@ -4554,7 +4559,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>122</v>
       </c>
@@ -4592,7 +4597,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>57</v>
       </c>
@@ -4630,7 +4635,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -4646,6 +4651,9 @@
       <c r="E99" s="6">
         <v>100</v>
       </c>
+      <c r="F99" t="s">
+        <v>8</v>
+      </c>
       <c r="G99" t="s">
         <v>18</v>
       </c>
@@ -4665,7 +4673,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>60</v>
       </c>
@@ -4681,6 +4689,9 @@
       <c r="E100" s="6">
         <v>350000</v>
       </c>
+      <c r="F100" t="s">
+        <v>8</v>
+      </c>
       <c r="G100" t="s">
         <v>25</v>
       </c>
@@ -4700,7 +4711,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>122</v>
       </c>
@@ -4716,6 +4727,9 @@
       <c r="E101" s="6">
         <v>190000</v>
       </c>
+      <c r="F101" t="s">
+        <v>66</v>
+      </c>
       <c r="G101" t="s">
         <v>42</v>
       </c>
@@ -4734,6 +4748,44 @@
       <c r="L101" t="s">
         <v>92</v>
       </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B102" s="4"/>
+      <c r="E102" s="6"/>
+      <c r="I102" s="11"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B103" s="4"/>
+      <c r="E103" s="6"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B104" s="4"/>
+      <c r="E104" s="6"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B105" s="4"/>
+      <c r="E105" s="6"/>
+      <c r="I105" s="11"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B106" s="4"/>
+      <c r="E106" s="6"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B107" s="4"/>
+      <c r="E107" s="6"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B108" s="4"/>
+      <c r="E108" s="6"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B109" s="4"/>
+      <c r="E109" s="6"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B110" s="4"/>
+      <c r="E110" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/knowledge-engineering/src/main/java/com/data/data.xlsx
+++ b/knowledge-engineering/src/main/java/com/data/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="176">
   <si>
     <t>company_name</t>
   </si>
@@ -513,6 +513,45 @@
   </si>
   <si>
     <t>bit-squatting</t>
+  </si>
+  <si>
+    <t>flash-file-overlay</t>
+  </si>
+  <si>
+    <t>[suspicious-conversation-email, ad-click,suspicious-link,credentials-theft,frequents-spams]</t>
+  </si>
+  <si>
+    <t>support_invisible_flash</t>
+  </si>
+  <si>
+    <t>android-activity-hijack</t>
+  </si>
+  <si>
+    <t>tapjacking</t>
+  </si>
+  <si>
+    <t>[app-download,credentials-theft,suspicious-code-modifications]</t>
+  </si>
+  <si>
+    <t>[pop-up-windows,app-download,ad-click,frequents-spams]</t>
+  </si>
+  <si>
+    <t>previously_installed_malicious_application_on_android_device</t>
+  </si>
+  <si>
+    <t>previously_installed_malicious_application</t>
+  </si>
+  <si>
+    <t>iPhone</t>
+  </si>
+  <si>
+    <t>rooting-sim-cards</t>
+  </si>
+  <si>
+    <t>[update,suspicious-conversation-phone-message,credentials-theft]</t>
+  </si>
+  <si>
+    <t>sim-card-that-relies-on-des-cipher</t>
   </si>
 </sst>
 </file>
@@ -890,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L110"/>
+  <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J100" sqref="J100"/>
+    <sheetView tabSelected="1" topLeftCell="G94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K113" sqref="K113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4750,42 +4789,460 @@
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B102" s="4"/>
-      <c r="E102" s="6"/>
-      <c r="I102" s="11"/>
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="4">
+        <v>43444</v>
+      </c>
+      <c r="C102" t="s">
+        <v>163</v>
+      </c>
+      <c r="D102" t="s">
+        <v>164</v>
+      </c>
+      <c r="E102" s="6">
+        <v>2000</v>
+      </c>
+      <c r="F102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" t="s">
+        <v>90</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="J102" t="s">
+        <v>105</v>
+      </c>
+      <c r="K102" t="s">
+        <v>92</v>
+      </c>
+      <c r="L102" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B103" s="4"/>
-      <c r="E103" s="6"/>
+      <c r="A103" t="s">
+        <v>117</v>
+      </c>
+      <c r="B103" s="4">
+        <v>44251</v>
+      </c>
+      <c r="C103" t="s">
+        <v>163</v>
+      </c>
+      <c r="D103" t="s">
+        <v>164</v>
+      </c>
+      <c r="E103" s="6">
+        <v>15000</v>
+      </c>
+      <c r="F103" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" t="s">
+        <v>25</v>
+      </c>
+      <c r="H103" t="s">
+        <v>90</v>
+      </c>
+      <c r="I103" t="s">
+        <v>165</v>
+      </c>
+      <c r="J103" t="s">
+        <v>105</v>
+      </c>
+      <c r="K103" t="s">
+        <v>92</v>
+      </c>
+      <c r="L103" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B104" s="4"/>
-      <c r="E104" s="6"/>
+      <c r="A104" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104" s="4">
+        <v>44092</v>
+      </c>
+      <c r="C104" t="s">
+        <v>163</v>
+      </c>
+      <c r="D104" t="s">
+        <v>164</v>
+      </c>
+      <c r="E104" s="6">
+        <v>220</v>
+      </c>
+      <c r="F104" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" t="s">
+        <v>90</v>
+      </c>
+      <c r="I104" t="s">
+        <v>165</v>
+      </c>
+      <c r="J104" t="s">
+        <v>105</v>
+      </c>
+      <c r="K104" t="s">
+        <v>92</v>
+      </c>
+      <c r="L104" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B105" s="4"/>
-      <c r="E105" s="6"/>
-      <c r="I105" s="11"/>
+      <c r="A105" t="s">
+        <v>24</v>
+      </c>
+      <c r="B105" s="4">
+        <v>43824</v>
+      </c>
+      <c r="C105" t="s">
+        <v>166</v>
+      </c>
+      <c r="D105" t="s">
+        <v>168</v>
+      </c>
+      <c r="E105" s="6">
+        <v>1500</v>
+      </c>
+      <c r="F105" t="s">
+        <v>8</v>
+      </c>
+      <c r="G105" t="s">
+        <v>25</v>
+      </c>
+      <c r="H105" t="s">
+        <v>90</v>
+      </c>
+      <c r="I105" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="J105" t="s">
+        <v>111</v>
+      </c>
+      <c r="K105" t="s">
+        <v>92</v>
+      </c>
+      <c r="L105" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B106" s="4"/>
-      <c r="E106" s="6"/>
+      <c r="A106" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" s="4">
+        <v>44321</v>
+      </c>
+      <c r="C106" t="s">
+        <v>166</v>
+      </c>
+      <c r="D106" t="s">
+        <v>168</v>
+      </c>
+      <c r="E106" s="6">
+        <v>250</v>
+      </c>
+      <c r="F106" t="s">
+        <v>19</v>
+      </c>
+      <c r="G106" t="s">
+        <v>18</v>
+      </c>
+      <c r="H106" t="s">
+        <v>90</v>
+      </c>
+      <c r="I106" t="s">
+        <v>170</v>
+      </c>
+      <c r="J106" t="s">
+        <v>111</v>
+      </c>
+      <c r="K106" t="s">
+        <v>92</v>
+      </c>
+      <c r="L106" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B107" s="4"/>
-      <c r="E107" s="6"/>
+      <c r="A107" t="s">
+        <v>30</v>
+      </c>
+      <c r="B107" s="4">
+        <v>43936</v>
+      </c>
+      <c r="C107" t="s">
+        <v>166</v>
+      </c>
+      <c r="D107" t="s">
+        <v>168</v>
+      </c>
+      <c r="E107" s="6">
+        <v>175</v>
+      </c>
+      <c r="F107" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" t="s">
+        <v>18</v>
+      </c>
+      <c r="H107" t="s">
+        <v>90</v>
+      </c>
+      <c r="I107" t="s">
+        <v>170</v>
+      </c>
+      <c r="J107" t="s">
+        <v>111</v>
+      </c>
+      <c r="K107" t="s">
+        <v>92</v>
+      </c>
+      <c r="L107" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B108" s="4"/>
-      <c r="E108" s="6"/>
+      <c r="A108" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" s="4">
+        <v>44147</v>
+      </c>
+      <c r="C108" t="s">
+        <v>167</v>
+      </c>
+      <c r="D108" t="s">
+        <v>169</v>
+      </c>
+      <c r="E108" s="6">
+        <v>100</v>
+      </c>
+      <c r="F108" t="s">
+        <v>19</v>
+      </c>
+      <c r="G108" t="s">
+        <v>18</v>
+      </c>
+      <c r="H108" t="s">
+        <v>90</v>
+      </c>
+      <c r="I108" t="s">
+        <v>171</v>
+      </c>
+      <c r="J108" t="s">
+        <v>107</v>
+      </c>
+      <c r="K108" t="s">
+        <v>95</v>
+      </c>
+      <c r="L108" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B109" s="4"/>
-      <c r="E109" s="6"/>
+      <c r="A109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" s="4">
+        <v>44056</v>
+      </c>
+      <c r="C109" t="s">
+        <v>167</v>
+      </c>
+      <c r="D109" t="s">
+        <v>169</v>
+      </c>
+      <c r="E109" s="6">
+        <v>100</v>
+      </c>
+      <c r="F109" t="s">
+        <v>19</v>
+      </c>
+      <c r="G109" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" t="s">
+        <v>90</v>
+      </c>
+      <c r="I109" t="s">
+        <v>171</v>
+      </c>
+      <c r="J109" t="s">
+        <v>107</v>
+      </c>
+      <c r="K109" t="s">
+        <v>95</v>
+      </c>
+      <c r="L109" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B110" s="4"/>
-      <c r="E110" s="6"/>
+      <c r="A110" t="s">
+        <v>24</v>
+      </c>
+      <c r="B110" s="4">
+        <v>43308</v>
+      </c>
+      <c r="C110" t="s">
+        <v>167</v>
+      </c>
+      <c r="D110" t="s">
+        <v>169</v>
+      </c>
+      <c r="E110" s="6">
+        <v>1500</v>
+      </c>
+      <c r="F110" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" t="s">
+        <v>25</v>
+      </c>
+      <c r="H110" t="s">
+        <v>90</v>
+      </c>
+      <c r="I110" t="s">
+        <v>171</v>
+      </c>
+      <c r="J110" t="s">
+        <v>107</v>
+      </c>
+      <c r="K110" t="s">
+        <v>95</v>
+      </c>
+      <c r="L110" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>172</v>
+      </c>
+      <c r="B111" s="4">
+        <v>43678</v>
+      </c>
+      <c r="C111" t="s">
+        <v>173</v>
+      </c>
+      <c r="D111" t="s">
+        <v>174</v>
+      </c>
+      <c r="E111" s="6">
+        <v>4200</v>
+      </c>
+      <c r="F111" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H111" t="s">
+        <v>92</v>
+      </c>
+      <c r="I111" t="s">
+        <v>175</v>
+      </c>
+      <c r="J111" t="s">
+        <v>102</v>
+      </c>
+      <c r="K111" t="s">
+        <v>90</v>
+      </c>
+      <c r="L111" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>24</v>
+      </c>
+      <c r="B112" s="4">
+        <v>43168</v>
+      </c>
+      <c r="C112" t="s">
+        <v>173</v>
+      </c>
+      <c r="D112" t="s">
+        <v>174</v>
+      </c>
+      <c r="E112" s="6">
+        <v>1500</v>
+      </c>
+      <c r="F112" t="s">
+        <v>8</v>
+      </c>
+      <c r="G112" t="s">
+        <v>25</v>
+      </c>
+      <c r="H112" t="s">
+        <v>92</v>
+      </c>
+      <c r="I112" t="s">
+        <v>175</v>
+      </c>
+      <c r="J112" t="s">
+        <v>102</v>
+      </c>
+      <c r="K112" t="s">
+        <v>90</v>
+      </c>
+      <c r="L112" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>172</v>
+      </c>
+      <c r="B113" s="4">
+        <v>44223</v>
+      </c>
+      <c r="C113" t="s">
+        <v>173</v>
+      </c>
+      <c r="D113" t="s">
+        <v>174</v>
+      </c>
+      <c r="E113" s="6">
+        <v>4200</v>
+      </c>
+      <c r="F113" t="s">
+        <v>8</v>
+      </c>
+      <c r="G113" t="s">
+        <v>16</v>
+      </c>
+      <c r="H113" t="s">
+        <v>92</v>
+      </c>
+      <c r="I113" t="s">
+        <v>175</v>
+      </c>
+      <c r="J113" t="s">
+        <v>102</v>
+      </c>
+      <c r="K113" t="s">
+        <v>90</v>
+      </c>
+      <c r="L113" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
